--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\google_OCR\oepnpyxl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\google_OCR\Crawling_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DC5561-EEDC-4176-B08B-A5C6DFE75969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904DE5E1-D579-4048-BE67-3E5D3303AA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14205" yWindow="1785" windowWidth="12975" windowHeight="12240" xr2:uid="{09794DAC-CE35-4907-A36F-1DF7019D831B}"/>
+    <workbookView xWindow="-27660" yWindow="1140" windowWidth="21600" windowHeight="11265" xr2:uid="{09794DAC-CE35-4907-A36F-1DF7019D831B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>상품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
   </si>
   <si>
     <t>김민창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.10.28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -531,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D86AA2-B33D-42A6-9298-7CACF33F64FA}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -558,46 +554,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -605,32 +601,32 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -638,10 +634,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -649,10 +645,10 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -663,7 +659,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -671,10 +667,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -682,10 +678,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -693,27 +689,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\google_OCR\Crawling_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904DE5E1-D579-4048-BE67-3E5D3303AA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B937FC5-6372-47B7-80BC-858690CA9047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27660" yWindow="1140" windowWidth="21600" windowHeight="11265" xr2:uid="{09794DAC-CE35-4907-A36F-1DF7019D831B}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\google_OCR\Crawling_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B937FC5-6372-47B7-80BC-858690CA9047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13DF7A6-38E0-47C6-A7C2-74A07997DC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27660" yWindow="1140" windowWidth="21600" windowHeight="11265" xr2:uid="{09794DAC-CE35-4907-A36F-1DF7019D831B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>상품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김민창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20.10.29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,15 +60,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>75ATD430N-66h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NT930QCG-K58A</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NT350XCR-AD5WA</t>
   </si>
   <si>
     <t>NT350XCR-AD5WA</t>
@@ -527,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D86AA2-B33D-42A6-9298-7CACF33F64FA}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -554,151 +543,140 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\google_OCR\Crawling_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13DF7A6-38E0-47C6-A7C2-74A07997DC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B79AA7-E998-4030-AD71-A8CCAFF06B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27660" yWindow="1140" windowWidth="21600" windowHeight="11265" xr2:uid="{09794DAC-CE35-4907-A36F-1DF7019D831B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>상품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,13 +104,30 @@
     <t>15ZD90N-HX56K</t>
   </si>
   <si>
-    <t>17ZD90N-VX50K</t>
-  </si>
-  <si>
     <t>NT950XCR-A58A</t>
   </si>
   <si>
     <t>NT950XCJ-X716A</t>
+  </si>
+  <si>
+    <t>MSI GL75 Leopard 10SDK</t>
+  </si>
+  <si>
+    <t>MXK32KH/A</t>
+  </si>
+  <si>
+    <t>MVVK2KH/A</t>
+  </si>
+  <si>
+    <t>20.10.30</t>
+  </si>
+  <si>
+    <t>20.11.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.11.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -516,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D86AA2-B33D-42A6-9298-7CACF33F64FA}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -557,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -587,7 +604,7 @@
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -598,10 +615,10 @@
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -609,7 +626,7 @@
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -620,10 +637,10 @@
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -631,7 +648,7 @@
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -642,41 +659,65 @@
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\google_OCR\Crawling_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B79AA7-E998-4030-AD71-A8CCAFF06B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{289D80FC-C258-4ABF-94F0-47B0D06C0D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27660" yWindow="1140" windowWidth="21600" windowHeight="11265" xr2:uid="{09794DAC-CE35-4907-A36F-1DF7019D831B}"/>
+    <workbookView xWindow="-28605" yWindow="7305" windowWidth="21600" windowHeight="11265" xr2:uid="{696281D2-0481-4146-96B8-B48613E4CCD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,71 +37,71 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>상품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>추가일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NT930QCG-K58A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>박문규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.11.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NT350XCR-AD5WA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.11.05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15ZD90N-VX50K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권규현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20.10.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>15UD40N-GX36K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NT930QCG-K58A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NT350XCR-AD5WA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15ZD90N-VX50K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이승호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권규현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NT950XCR-G58A</t>
+  </si>
+  <si>
+    <t>17ZD90N-VX70K</t>
+  </si>
+  <si>
+    <t>NT950QCT-A58A</t>
+  </si>
+  <si>
+    <t>15ZD90N-HX56K</t>
   </si>
   <si>
     <t>임선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.11.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.11.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NT950XCR-G58A</t>
-  </si>
-  <si>
-    <t>17ZD90N-VX70K</t>
-  </si>
-  <si>
-    <t>NT950QCT-A58A</t>
-  </si>
-  <si>
-    <t>15ZD90N-HX56K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NT950XCR-A58A</t>
@@ -110,24 +110,24 @@
     <t>NT950XCJ-X716A</t>
   </si>
   <si>
+    <t>MXK32KH/A</t>
+  </si>
+  <si>
+    <t>20.10.30</t>
+  </si>
+  <si>
+    <t>MVVK2KH/A</t>
+  </si>
+  <si>
+    <t>20.11.09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>MSI GL75 Leopard 10SDK</t>
   </si>
   <si>
-    <t>MXK32KH/A</t>
-  </si>
-  <si>
-    <t>MVVK2KH/A</t>
-  </si>
-  <si>
-    <t>20.10.30</t>
-  </si>
-  <si>
-    <t>20.11.09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20.11.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -144,18 +144,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -203,21 +203,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,196 +529,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D86AA2-B33D-42A6-9298-7CACF33F64FA}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A6E5AE-09CD-4D5F-A668-6E02940DE449}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.9140625" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="37.08203125" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.08203125" customWidth="1"/>
+    <col min="3" max="3" width="22.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" s="1"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\google_OCR\Crawling_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{289D80FC-C258-4ABF-94F0-47B0D06C0D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3E4924-8F4C-4F99-BC67-5BB3E0740971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28605" yWindow="7305" windowWidth="21600" windowHeight="11265" xr2:uid="{696281D2-0481-4146-96B8-B48613E4CCD9}"/>
+    <workbookView xWindow="-18915" yWindow="2535" windowWidth="13365" windowHeight="5790" xr2:uid="{696281D2-0481-4146-96B8-B48613E4CCD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,99 +34,173 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
   <si>
     <t>상품명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>담당자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>추가일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NT930QCG-K58A</t>
+    <t>NT950XCR-G58A</t>
+  </si>
+  <si>
+    <t>NT550XCR-AD1WA</t>
+  </si>
+  <si>
+    <t>NT550XCJ-KC24</t>
+  </si>
+  <si>
+    <t>GA502IU-AZ015T</t>
+  </si>
+  <si>
+    <t>GP75 Leopard 9SD</t>
+  </si>
+  <si>
+    <t>AS G512LI-HN065</t>
+  </si>
+  <si>
+    <t>LG 15ZD90N-V.AX7BK</t>
+  </si>
+  <si>
+    <t>엘리트데스크 800G5 TWR 6BD60AV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FA506IU-HN174</t>
+  </si>
+  <si>
+    <t>GX550LWS-HF046R</t>
+  </si>
+  <si>
+    <t>GU502LW-HC111T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G712LU-EV001</t>
+  </si>
+  <si>
+    <t>G731GT-H7114</t>
+  </si>
+  <si>
+    <t>GA502IV-AZ001</t>
+  </si>
+  <si>
+    <t>FA706IU-H7100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GU502LV-AZ015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B80FV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G712LV-EV068</t>
+  </si>
+  <si>
+    <t>GF75 Thin 9SCXR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GA502IV-AZ001T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NT950XCJ-X716A</t>
+  </si>
+  <si>
+    <t>15U50N-KR56K</t>
+  </si>
+  <si>
+    <t>NT550XCR-GD5A</t>
+  </si>
+  <si>
+    <t>G512LU-AL043</t>
+  </si>
+  <si>
+    <t>GX701LXS-HG032T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X512FA-BQ1607 </t>
+  </si>
+  <si>
+    <t>NT550XCR-AD2A</t>
+  </si>
+  <si>
+    <t>GX550LWS-HC108R</t>
+  </si>
+  <si>
+    <t>NT550XCR-AD5A + NVMe SSD 512GB</t>
+  </si>
+  <si>
+    <t>UM433IQ-A5059</t>
+  </si>
+  <si>
+    <t>DB400T9A i5-9400</t>
+  </si>
+  <si>
+    <t>17UD70N-G.AX76K</t>
+  </si>
+  <si>
+    <t>17ZD90N-V.AX30K_Online</t>
+  </si>
+  <si>
+    <t>NT350XCR-AD5WA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DM500S9Z-AD3BA</t>
+  </si>
+  <si>
+    <t>15M A10SE-i7</t>
+  </si>
+  <si>
+    <t>NT550EBV-AD5BA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> NT750QCJ-K58A</t>
+  </si>
+  <si>
+    <t>MHK33KH/A</t>
+  </si>
+  <si>
+    <t>15UD50N-GX50K</t>
+  </si>
+  <si>
+    <t>15ZD90N-VX5BK</t>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASUS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>박문규</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.11.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NT350XCR-AD5WA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.11.05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15ZD90N-VX50K</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>권규현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.10.29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15UD40N-GX36K</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이승호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NT950XCR-G58A</t>
-  </si>
-  <si>
-    <t>17ZD90N-VX70K</t>
-  </si>
-  <si>
-    <t>NT950QCT-A58A</t>
-  </si>
-  <si>
-    <t>15ZD90N-HX56K</t>
-  </si>
-  <si>
-    <t>임선정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NT950XCR-A58A</t>
-  </si>
-  <si>
-    <t>NT950XCJ-X716A</t>
-  </si>
-  <si>
-    <t>MXK32KH/A</t>
-  </si>
-  <si>
-    <t>20.10.30</t>
-  </si>
-  <si>
-    <t>MVVK2KH/A</t>
-  </si>
-  <si>
-    <t>20.11.09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSI GL75 Leopard 10SDK</t>
-  </si>
-  <si>
-    <t>20.11.07</t>
+    <t>2020.11.19</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +233,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,8 +260,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,24 +289,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA9A9A9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA9A9A9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9A9A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,171 +640,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A6E5AE-09CD-4D5F-A668-6E02940DE449}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.08203125" customWidth="1"/>
-    <col min="3" max="3" width="22.9140625" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.08203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.9140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\google_OCR\Crawling_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3E4924-8F4C-4F99-BC67-5BB3E0740971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968AB6EE-E0CC-4659-AA2E-871B4A6E8C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18915" yWindow="2535" windowWidth="13365" windowHeight="5790" xr2:uid="{696281D2-0481-4146-96B8-B48613E4CCD9}"/>
+    <workbookView xWindow="-25650" yWindow="3555" windowWidth="13365" windowHeight="5790" xr2:uid="{696281D2-0481-4146-96B8-B48613E4CCD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
   <si>
     <t>상품명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,9 +68,6 @@
     <t>LG 15ZD90N-V.AX7BK</t>
   </si>
   <si>
-    <t>엘리트데스크 800G5 TWR 6BD60AV</t>
-  </si>
-  <si>
     <t xml:space="preserve"> FA506IU-HN174</t>
   </si>
   <si>
@@ -99,9 +99,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>G712LV-EV068</t>
-  </si>
-  <si>
     <t>GF75 Thin 9SCXR</t>
   </si>
   <si>
@@ -129,22 +126,10 @@
     <t>NT550XCR-AD2A</t>
   </si>
   <si>
-    <t>GX550LWS-HC108R</t>
-  </si>
-  <si>
     <t>NT550XCR-AD5A + NVMe SSD 512GB</t>
   </si>
   <si>
-    <t>UM433IQ-A5059</t>
-  </si>
-  <si>
     <t>DB400T9A i5-9400</t>
-  </si>
-  <si>
-    <t>17UD70N-G.AX76K</t>
-  </si>
-  <si>
-    <t>17ZD90N-V.AX30K_Online</t>
   </si>
   <si>
     <t>NT350XCR-AD5WA</t>
@@ -172,10 +157,6 @@
     <t>15ZD90N-VX5BK</t>
   </si>
   <si>
-    <t>삼성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ASUS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -192,16 +173,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>애플</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>제조사명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2020.11.19</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GX550LWS-HC013R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17UD70N-G.AX76K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800G5 TWR 6BD60AV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+  </si>
+  <si>
+    <t>APPLE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -310,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,6 +321,18 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A6E5AE-09CD-4D5F-A668-6E02940DE449}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -658,498 +666,436 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
+      <c r="A17" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>22</v>
+      <c r="A22" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
-        <v>26</v>
+      <c r="A27" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
-        <v>27</v>
+      <c r="A28" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
-        <v>31</v>
+      <c r="A33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>32</v>
+      <c r="A34" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
-        <v>33</v>
+      <c r="A35" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="4" t="s">
-        <v>34</v>
+      <c r="A36" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="3" t="s">
-        <v>37</v>
+      <c r="A39" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C39">
+    <sortCondition ref="A2:A39"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>